--- a/ui_design/design_plan.xlsx
+++ b/ui_design/design_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keng\Desktop\robot_ui\ui_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F26DF-ECEE-492D-B6F9-35E3DFE95B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F703486-C6D3-445D-8704-A4D915F167A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,8 +249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3765028" y="3753490"/>
-          <a:ext cx="3761345" cy="7905110"/>
+          <a:off x="3704269" y="3873806"/>
+          <a:ext cx="3704796" cy="8163789"/>
           <a:chOff x="6386943" y="942110"/>
           <a:chExt cx="6816439" cy="18948094"/>
         </a:xfrm>
@@ -652,13 +652,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44381</v>
       </c>
@@ -680,13 +680,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44385</v>
       </c>
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -705,17 +705,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -739,37 +739,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
